--- a/packages/models/data/provinces.xlsx
+++ b/packages/models/data/provinces.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\p2018\packages\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\p2018\packages\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,8 @@
   <definedNames>
     <definedName name="_id.Code">main!$A$1</definedName>
     <definedName name="Description">main!$E$1</definedName>
-    <definedName name="Name.en">main!$C$1</definedName>
-    <definedName name="Name.value">main!$B$1</definedName>
-    <definedName name="Name.vn">main!$D$1</definedName>
+    <definedName name="ForeignName">main!$C$1</definedName>
+    <definedName name="Name">main!$B$1</definedName>
     <definedName name="PostalCode">main!$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -894,7 +893,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,11 +948,11 @@
         <v>76</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B65" si="0">D3</f>
+        <f>D3</f>
         <v>Bà Rịa – Vũng Tàu</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C65" si="1">D3</f>
+        <f>D3</f>
         <v>Bà Rịa – Vũng Tàu</v>
       </c>
       <c r="D3" t="s">
@@ -968,11 +967,11 @@
         <v>77</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>Bạc Liêu</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f>D4</f>
         <v>Bạc Liêu</v>
       </c>
       <c r="D4" t="s">
@@ -987,11 +986,11 @@
         <v>78</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>D5</f>
         <v>Bắc Kạn</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f>D5</f>
         <v>Bắc Kạn</v>
       </c>
       <c r="D5" t="s">
@@ -1006,11 +1005,11 @@
         <v>79</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>D6</f>
         <v>Bắc Giang</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f>D6</f>
         <v>Bắc Giang</v>
       </c>
       <c r="D6" t="s">
@@ -1025,11 +1024,11 @@
         <v>80</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>D7</f>
         <v>Bắc Ninh</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f>D7</f>
         <v>Bắc Ninh</v>
       </c>
       <c r="D7" t="s">
@@ -1044,11 +1043,11 @@
         <v>81</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f>D8</f>
         <v>Bến Tre</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f>D8</f>
         <v>Bến Tre</v>
       </c>
       <c r="D8" t="s">
@@ -1063,11 +1062,11 @@
         <v>82</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f>D9</f>
         <v>Bình Dương</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f>D9</f>
         <v>Bình Dương</v>
       </c>
       <c r="D9" t="s">
@@ -1082,11 +1081,11 @@
         <v>83</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f>D10</f>
         <v>Bình Định</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f>D10</f>
         <v>Bình Định</v>
       </c>
       <c r="D10" t="s">
@@ -1101,11 +1100,11 @@
         <v>84</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f>D11</f>
         <v>Bình Phước</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f>D11</f>
         <v>Bình Phước</v>
       </c>
       <c r="D11" t="s">
@@ -1120,11 +1119,11 @@
         <v>85</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f>D12</f>
         <v>Bình Thuận</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f>D12</f>
         <v>Bình Thuận</v>
       </c>
       <c r="D12" t="s">
@@ -1139,11 +1138,11 @@
         <v>86</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f>D13</f>
         <v>Cà Mau</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f>D13</f>
         <v>Cà Mau</v>
       </c>
       <c r="D13" t="s">
@@ -1158,11 +1157,11 @@
         <v>87</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f>D14</f>
         <v>Cao Bằng</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f>D14</f>
         <v>Cao Bằng</v>
       </c>
       <c r="D14" t="s">
@@ -1177,11 +1176,11 @@
         <v>88</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f>D15</f>
         <v>Cần Thơ</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f>D15</f>
         <v>Cần Thơ</v>
       </c>
       <c r="D15" t="s">
@@ -1196,11 +1195,11 @@
         <v>89</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>D16</f>
         <v>Đà Nẵng</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f>D16</f>
         <v>Đà Nẵng</v>
       </c>
       <c r="D16" t="s">
@@ -1215,11 +1214,11 @@
         <v>90</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f>D17</f>
         <v>Đắk Lắk</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f>D17</f>
         <v>Đắk Lắk</v>
       </c>
       <c r="D17" t="s">
@@ -1234,11 +1233,11 @@
         <v>91</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f>D18</f>
         <v>Đắk Nông</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f>D18</f>
         <v>Đắk Nông</v>
       </c>
       <c r="D18" t="s">
@@ -1253,11 +1252,11 @@
         <v>92</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f>D19</f>
         <v>Điện Biên</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f>D19</f>
         <v>Điện Biên</v>
       </c>
       <c r="D19" t="s">
@@ -1272,11 +1271,11 @@
         <v>93</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f>D20</f>
         <v>Đồng Nai</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f>D20</f>
         <v>Đồng Nai</v>
       </c>
       <c r="D20" t="s">
@@ -1291,11 +1290,11 @@
         <v>94</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f>D21</f>
         <v>Đồng Tháp</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f>D21</f>
         <v>Đồng Tháp</v>
       </c>
       <c r="D21" t="s">
@@ -1310,11 +1309,11 @@
         <v>95</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f>D22</f>
         <v>Gia Lai</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f>D22</f>
         <v>Gia Lai</v>
       </c>
       <c r="D22" t="s">
@@ -1329,11 +1328,11 @@
         <v>96</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f>D23</f>
         <v>Hà Giang</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f>D23</f>
         <v>Hà Giang</v>
       </c>
       <c r="D23" t="s">
@@ -1348,11 +1347,11 @@
         <v>97</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f>D24</f>
         <v>Hà Nam</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f>D24</f>
         <v>Hà Nam</v>
       </c>
       <c r="D24" t="s">
@@ -1367,11 +1366,11 @@
         <v>98</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f>D25</f>
         <v>Hà Nội</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f>D25</f>
         <v>Hà Nội</v>
       </c>
       <c r="D25" t="s">
@@ -1386,11 +1385,11 @@
         <v>99</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f>D26</f>
         <v>Hà Tĩnh</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f>D26</f>
         <v>Hà Tĩnh</v>
       </c>
       <c r="D26" t="s">
@@ -1405,11 +1404,11 @@
         <v>100</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f>D27</f>
         <v>Hải Dương</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f>D27</f>
         <v>Hải Dương</v>
       </c>
       <c r="D27" t="s">
@@ -1424,11 +1423,11 @@
         <v>101</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f>D28</f>
         <v>Hải Phòng</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f>D28</f>
         <v>Hải Phòng</v>
       </c>
       <c r="D28" t="s">
@@ -1443,11 +1442,11 @@
         <v>102</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f>D29</f>
         <v>Hậu Giang</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f>D29</f>
         <v>Hậu Giang</v>
       </c>
       <c r="D29" t="s">
@@ -1462,11 +1461,11 @@
         <v>103</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f>D30</f>
         <v>Hòa Bình</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f>D30</f>
         <v>Hòa Bình</v>
       </c>
       <c r="D30" t="s">
@@ -1481,11 +1480,11 @@
         <v>104</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f>D31</f>
         <v>Thành phố Hồ Chí Minh</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f>D31</f>
         <v>Thành phố Hồ Chí Minh</v>
       </c>
       <c r="D31" t="s">
@@ -1500,11 +1499,11 @@
         <v>105</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f>D32</f>
         <v>Hưng Yên</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f>D32</f>
         <v>Hưng Yên</v>
       </c>
       <c r="D32" t="s">
@@ -1519,11 +1518,11 @@
         <v>106</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f>D33</f>
         <v>Khánh Hòa</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f>D33</f>
         <v>Khánh Hòa</v>
       </c>
       <c r="D33" t="s">
@@ -1538,11 +1537,11 @@
         <v>107</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f>D34</f>
         <v>Kiên Giang</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f>D34</f>
         <v>Kiên Giang</v>
       </c>
       <c r="D34" t="s">
@@ -1557,11 +1556,11 @@
         <v>108</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f>D35</f>
         <v>Kon Tum</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f>D35</f>
         <v>Kon Tum</v>
       </c>
       <c r="D35" t="s">
@@ -1576,11 +1575,11 @@
         <v>109</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f>D36</f>
         <v>Lai Châu</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f>D36</f>
         <v>Lai Châu</v>
       </c>
       <c r="D36" t="s">
@@ -1595,11 +1594,11 @@
         <v>110</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f>D37</f>
         <v>Lạng Sơn</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f>D37</f>
         <v>Lạng Sơn</v>
       </c>
       <c r="D37" t="s">
@@ -1614,11 +1613,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f>D38</f>
         <v>Lào Cai</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f>D38</f>
         <v>Lào Cai</v>
       </c>
       <c r="D38" t="s">
@@ -1633,11 +1632,11 @@
         <v>112</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f>D39</f>
         <v>Lâm Đồng</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f>D39</f>
         <v>Lâm Đồng</v>
       </c>
       <c r="D39" t="s">
@@ -1652,11 +1651,11 @@
         <v>113</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f>D40</f>
         <v>Long An</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f>D40</f>
         <v>Long An</v>
       </c>
       <c r="D40" t="s">
@@ -1671,11 +1670,11 @@
         <v>114</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f>D41</f>
         <v>Nam Định</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f>D41</f>
         <v>Nam Định</v>
       </c>
       <c r="D41" t="s">
@@ -1690,11 +1689,11 @@
         <v>115</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f>D42</f>
         <v>Nghệ An</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f>D42</f>
         <v>Nghệ An</v>
       </c>
       <c r="D42" t="s">
@@ -1709,11 +1708,11 @@
         <v>116</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f>D43</f>
         <v>Ninh Bình</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f>D43</f>
         <v>Ninh Bình</v>
       </c>
       <c r="D43" t="s">
@@ -1728,11 +1727,11 @@
         <v>117</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f>D44</f>
         <v>Ninh Thuận</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f>D44</f>
         <v>Ninh Thuận</v>
       </c>
       <c r="D44" t="s">
@@ -1747,11 +1746,11 @@
         <v>118</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f>D45</f>
         <v>Phú Thọ</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f>D45</f>
         <v>Phú Thọ</v>
       </c>
       <c r="D45" t="s">
@@ -1766,11 +1765,11 @@
         <v>119</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f>D46</f>
         <v>Phú Yên</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f>D46</f>
         <v>Phú Yên</v>
       </c>
       <c r="D46" t="s">
@@ -1785,11 +1784,11 @@
         <v>120</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f>D47</f>
         <v>Quảng Bình</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f>D47</f>
         <v>Quảng Bình</v>
       </c>
       <c r="D47" t="s">
@@ -1804,11 +1803,11 @@
         <v>121</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f>D48</f>
         <v>Quảng Nam</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f>D48</f>
         <v>Quảng Nam</v>
       </c>
       <c r="D48" t="s">
@@ -1823,11 +1822,11 @@
         <v>122</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f>D49</f>
         <v>Quảng Ngãi</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f>D49</f>
         <v>Quảng Ngãi</v>
       </c>
       <c r="D49" t="s">
@@ -1842,11 +1841,11 @@
         <v>123</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
+        <f>D50</f>
         <v>Quảng Ninh</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f>D50</f>
         <v>Quảng Ninh</v>
       </c>
       <c r="D50" t="s">
@@ -1861,11 +1860,11 @@
         <v>124</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f>D51</f>
         <v>Quảng Trị</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f>D51</f>
         <v>Quảng Trị</v>
       </c>
       <c r="D51" t="s">
@@ -1880,11 +1879,11 @@
         <v>125</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
+        <f>D52</f>
         <v>Sóc Trăng</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f>D52</f>
         <v>Sóc Trăng</v>
       </c>
       <c r="D52" t="s">
@@ -1899,11 +1898,11 @@
         <v>126</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f>D53</f>
         <v>Sơn La</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f>D53</f>
         <v>Sơn La</v>
       </c>
       <c r="D53" t="s">
@@ -1918,11 +1917,11 @@
         <v>127</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
+        <f>D54</f>
         <v>Tây Ninh</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f>D54</f>
         <v>Tây Ninh</v>
       </c>
       <c r="D54" t="s">
@@ -1937,11 +1936,11 @@
         <v>128</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
+        <f>D55</f>
         <v>Thái Bình</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f>D55</f>
         <v>Thái Bình</v>
       </c>
       <c r="D55" t="s">
@@ -1956,11 +1955,11 @@
         <v>129</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
+        <f>D56</f>
         <v>Thái Nguyên</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f>D56</f>
         <v>Thái Nguyên</v>
       </c>
       <c r="D56" t="s">
@@ -1975,11 +1974,11 @@
         <v>130</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
+        <f>D57</f>
         <v>Thanh Hóa</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f>D57</f>
         <v>Thanh Hóa</v>
       </c>
       <c r="D57" t="s">
@@ -1994,11 +1993,11 @@
         <v>131</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>D58</f>
         <v>0</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f>D58</f>
         <v>0</v>
       </c>
       <c r="F58" t="s">
@@ -2010,11 +2009,11 @@
         <v>132</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
+        <f>D59</f>
         <v>Thừa Thiên – Huế</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f>D59</f>
         <v>Thừa Thiên – Huế</v>
       </c>
       <c r="D59" t="s">
@@ -2029,11 +2028,11 @@
         <v>133</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
+        <f>D60</f>
         <v>Tiền Giang</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f>D60</f>
         <v>Tiền Giang</v>
       </c>
       <c r="D60" t="s">
@@ -2048,11 +2047,11 @@
         <v>134</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
+        <f>D61</f>
         <v>Trà Vinh</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f>D61</f>
         <v>Trà Vinh</v>
       </c>
       <c r="D61" t="s">
@@ -2067,11 +2066,11 @@
         <v>135</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f>D62</f>
         <v>Tuyên Quang</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f>D62</f>
         <v>Tuyên Quang</v>
       </c>
       <c r="D62" t="s">
@@ -2086,11 +2085,11 @@
         <v>136</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
+        <f>D63</f>
         <v>Vĩnh Long</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f>D63</f>
         <v>Vĩnh Long</v>
       </c>
       <c r="D63" t="s">
@@ -2105,11 +2104,11 @@
         <v>137</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
+        <f>D64</f>
         <v>Vĩnh Phúc</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f>D64</f>
         <v>Vĩnh Phúc</v>
       </c>
       <c r="D64" t="s">
@@ -2124,11 +2123,11 @@
         <v>138</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
+        <f>D65</f>
         <v>Yên Bái</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f>D65</f>
         <v>Yên Bái</v>
       </c>
       <c r="D65" t="s">
